--- a/Records/EmployeeEvaluation.xlsx
+++ b/Records/EmployeeEvaluation.xlsx
@@ -13,9 +13,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>DDL</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>DML</t>
   </si>
   <si>
     <t>Beginner</t>
@@ -25,6 +31,15 @@
   </si>
   <si>
     <t>Not Yet Started</t>
+  </si>
+  <si>
+    <t>Sql</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>css</t>
   </si>
 </sst>
 </file>
@@ -83,6 +98,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -96,12 +151,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>2</v>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
